--- a/in-progress/WangS_2020_IEEE/SUBMISSION/S2/S2_template.xlsx
+++ b/in-progress/WangS_2020_IEEE/SUBMISSION/S2/S2_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Documents/GitHub/nmcuration/in-progress/WangS_2020_IEEE/SUBMISSION/S2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7545F746-C84C-CC46-AC37-7E9161939804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7920858A-439C-FD43-BB82-830C4ACE5E43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="21360" windowHeight="17540" tabRatio="605" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="21360" windowHeight="17540" tabRatio="605" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="618">
   <si>
     <t>COLOR LEGENDS</t>
   </si>
@@ -275,25 +275,13 @@
     <t>Filler description</t>
   </si>
   <si>
-    <t>Highly pure grades of commercial particles of Al(OH)3 with a quoted average size of 30 nm was added by weight ratio.</t>
-  </si>
-  <si>
     <t>Filler chemical name/Filler name</t>
   </si>
   <si>
-    <t>Aluminum Hydroxide Nanoparticles</t>
-  </si>
-  <si>
     <t>Filler PubChem reference</t>
   </si>
   <si>
-    <t>10176082  (?)</t>
-  </si>
-  <si>
     <t>Filler abbreviation</t>
-  </si>
-  <si>
-    <t>Nano-Al(OH)_3</t>
   </si>
   <si>
     <t>Manufacturer or source name</t>
@@ -393,15 +381,9 @@
     <t>Additive - description</t>
   </si>
   <si>
-    <t>Hexadecyltrimethoxysilane was used as a coupling agent for the surface modification of nano-Al(OH)3</t>
-  </si>
-  <si>
     <t>Additive - additive</t>
   </si>
   <si>
-    <t>Hexadecyltrimethoxysilane</t>
-  </si>
-  <si>
     <t>Additive - amount</t>
   </si>
   <si>
@@ -420,16 +402,10 @@
     <t>Solvent - solvent amount</t>
   </si>
   <si>
-    <t>Acetone</t>
-  </si>
-  <si>
     <t>Mixing #</t>
   </si>
   <si>
     <t>Mixing - description</t>
-  </si>
-  <si>
-    <t>Surface modification was performed by a solution mixing method. First, nano-Al(OH)3 was dispersed in acetone, and then the coupling agent having a mass ratio of 1.5% to the nanoparticles was added to the mixed solution.</t>
   </si>
   <si>
     <t>Mixing - mixer</t>
@@ -2633,7 +2609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2833,9 +2809,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2853,6 +2826,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2886,7 +2862,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3259,7 +3246,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -3268,32 +3255,32 @@
     </row>
     <row r="2" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H4" s="76" t="s">
         <v>4</v>
@@ -3301,7 +3288,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -3312,7 +3299,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="75"/>
@@ -3333,7 +3320,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -3344,7 +3331,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="101" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -3355,7 +3342,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -3366,7 +3353,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="101" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -3377,7 +3364,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -3411,7 +3398,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -3420,14 +3407,14 @@
     </row>
     <row r="2" spans="1:10" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
     </row>
     <row r="4" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -3441,7 +3428,7 @@
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="91" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -3450,7 +3437,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B6" s="77"/>
       <c r="C6" s="101"/>
@@ -3466,13 +3453,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>53</v>
@@ -3483,7 +3470,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="81" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -3492,7 +3479,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -3501,7 +3488,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="81" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -3521,7 +3508,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>4</v>
@@ -3530,7 +3517,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="84" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -3539,7 +3526,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="84" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -3548,7 +3535,7 @@
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="84" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -3558,7 +3545,7 @@
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B17" s="86"/>
       <c r="C17" s="86"/>
@@ -3568,7 +3555,7 @@
     <row r="18" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B19" s="83"/>
       <c r="C19" s="83"/>
@@ -3580,7 +3567,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="92" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="101"/>
@@ -3602,13 +3589,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="90" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D22" s="76" t="s">
         <v>53</v>
@@ -3622,7 +3609,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -3634,7 +3621,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="81" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -3646,7 +3633,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="81" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
@@ -3672,19 +3659,19 @@
         <v>51</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D27" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H27" s="79" t="s">
         <v>4</v>
@@ -3692,7 +3679,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="81" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -3704,7 +3691,7 @@
     </row>
     <row r="29" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
@@ -3738,23 +3725,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B2" s="121"/>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C4" s="96" t="s">
         <v>4</v>
@@ -3763,7 +3750,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="80" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B5" s="75"/>
       <c r="D5" s="78"/>
@@ -3777,14 +3764,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="80" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B7" s="77"/>
       <c r="D7" s="78"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="80" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B8" s="77"/>
       <c r="D8" s="78"/>
@@ -3795,10 +3782,10 @@
     </row>
     <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>53</v>
@@ -3809,37 +3796,37 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="80" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="101" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="80" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="101" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="80" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="101" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D13" s="78"/>
     </row>
     <row r="14" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B14" s="86"/>
       <c r="C14" s="99"/>
@@ -3847,10 +3834,10 @@
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C16" s="76" t="s">
         <v>53</v>
@@ -3861,14 +3848,14 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B17" s="75"/>
       <c r="C17" s="77"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="77"/>
@@ -3902,7 +3889,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>17</v>
@@ -3914,13 +3901,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3934,178 +3921,178 @@
         <v>21</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H3" s="101" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="101" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H4" s="101" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H8" s="101" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F9" s="101" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F11" s="101" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H12" s="101" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H13" s="101" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="101" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -4113,10 +4100,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="101" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C16" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E16" s="37" t="s">
         <v>71</v>
@@ -4124,54 +4111,54 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="101" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C17" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="101" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C18" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E18" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="101" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E19" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="101" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4179,483 +4166,483 @@
         <v>62</v>
       </c>
       <c r="B22" s="101" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F22" s="101" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="101" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B23" s="101" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D23" s="101" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E23" s="101" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F23" s="101" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="101" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C24" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D24" s="101" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E24" s="101" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F24" s="101" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="101" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C25" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D25" s="101" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E25" s="101" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F25" s="101" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="101" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D26" s="101" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F26" s="101" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E27" s="101" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F27" s="101" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="101" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F28" s="101" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="101" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E30" s="101" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="101" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E31" s="101" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="101" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E35" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="101" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E36" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="101" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E37" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="101" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="101" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="37" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E40" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="101" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="101" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E43" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C47" s="101" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D47" s="101" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B48" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C48" s="101" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D48" s="101" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B49" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="37" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="101" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="37" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C63" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D63" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E63" s="101" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F63" s="101" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G63" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D64" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E64" s="101" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F64" s="101" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G64" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B65" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C65" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D65" s="101" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E65" s="101" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F65" s="101" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B66" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D66" s="101" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E66" s="101" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F66" s="101" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D67" s="101" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E67" s="101" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E68" s="101" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E69" s="101" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="37" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B74" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B75" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B76" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -4686,7 +4673,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="76"/>
@@ -4694,37 +4681,37 @@
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="119"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>4</v>
@@ -4732,19 +4719,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B7" s="75"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -4755,25 +4742,25 @@
     </row>
     <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H10" s="76" t="s">
         <v>4</v>
@@ -4781,19 +4768,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B11" s="75"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B12" s="75"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -4804,30 +4791,30 @@
     </row>
     <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H16" s="76" t="s">
         <v>4</v>
@@ -4835,19 +4822,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B17" s="75"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B18" s="75"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -4858,30 +4845,30 @@
     </row>
     <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D22" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H22" s="76" t="s">
         <v>4</v>
@@ -4889,19 +4876,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B23" s="75"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B24" s="75"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
@@ -4912,25 +4899,25 @@
     </row>
     <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B27" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D27" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H27" s="76" t="s">
         <v>4</v>
@@ -4938,19 +4925,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B28" s="75"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B29" s="75"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -4961,25 +4948,25 @@
     </row>
     <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B32" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D32" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F32" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G32" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H32" s="76" t="s">
         <v>4</v>
@@ -4987,19 +4974,19 @@
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B33" s="75"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B34" s="75"/>
     </row>
     <row r="35" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -5010,30 +4997,30 @@
     </row>
     <row r="37" spans="1:16384" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:16384" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B38" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D38" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F38" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G38" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H38" s="76" t="s">
         <v>4</v>
@@ -21417,19 +21404,19 @@
     </row>
     <row r="39" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B39" s="75"/>
     </row>
     <row r="40" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B40" s="75"/>
     </row>
     <row r="41" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
@@ -21441,25 +21428,25 @@
     <row r="42" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:16384" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B43" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D43" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F43" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G43" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H43" s="76" t="s">
         <v>4</v>
@@ -37843,19 +37830,19 @@
     </row>
     <row r="44" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B44" s="75"/>
     </row>
     <row r="45" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B45" s="75"/>
     </row>
     <row r="46" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -37927,7 +37914,7 @@
       <c r="A5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="111" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="66" t="s">
@@ -37941,7 +37928,7 @@
       <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="112" t="s">
         <v>12</v>
       </c>
     </row>
@@ -38184,8 +38171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="88" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="88" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38413,48 +38400,40 @@
       <c r="A27" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="106" t="s">
-        <v>80</v>
-      </c>
+      <c r="B27" s="106"/>
       <c r="C27" s="94"/>
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="103" t="s">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B28" s="103"/>
       <c r="C28" s="94"/>
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="104" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B29" s="104"/>
       <c r="C29" s="94"/>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="103" t="s">
-        <v>86</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B30" s="103"/>
       <c r="C30" s="94"/>
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="94"/>
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B32" s="72"/>
       <c r="C32" s="94"/>
@@ -38469,29 +38448,23 @@
     </row>
     <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B34" s="72"/>
       <c r="C34" s="94"/>
     </row>
     <row r="35" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="107">
-        <v>30</v>
-      </c>
-      <c r="D35" s="108" t="s">
-        <v>91</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="72"/>
     </row>
     <row r="36" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
@@ -38499,7 +38472,7 @@
     </row>
     <row r="37" spans="1:5" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
@@ -38507,14 +38480,14 @@
     </row>
     <row r="38" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
     </row>
     <row r="39" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
@@ -38522,7 +38495,7 @@
     </row>
     <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
@@ -38530,7 +38503,7 @@
     </row>
     <row r="41" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
@@ -38538,37 +38511,37 @@
     </row>
     <row r="42" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B42" s="94"/>
       <c r="C42" s="72"/>
     </row>
     <row r="43" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B43" s="94"/>
       <c r="C43" s="72"/>
     </row>
     <row r="45" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B45" s="94"/>
       <c r="C45" s="94"/>
     </row>
     <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="114"/>
+        <v>98</v>
+      </c>
+      <c r="C46" s="113"/>
     </row>
     <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B48" s="76" t="s">
         <v>51</v>
@@ -38585,7 +38558,7 @@
     </row>
     <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B49" s="72"/>
       <c r="C49" s="94"/>
@@ -38594,7 +38567,7 @@
     </row>
     <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B50" s="72"/>
       <c r="C50" s="94"/>
@@ -38603,14 +38576,14 @@
     </row>
     <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B51" s="72"/>
       <c r="E51" s="101"/>
     </row>
     <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="94"/>
@@ -38619,7 +38592,7 @@
     </row>
     <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B53" s="72"/>
       <c r="C53" s="94"/>
@@ -38628,7 +38601,7 @@
     </row>
     <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B54" s="72"/>
       <c r="C54" s="72"/>
@@ -38637,7 +38610,7 @@
     </row>
     <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B55" s="72"/>
       <c r="C55" s="72"/>
@@ -38646,7 +38619,7 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B56" s="72"/>
       <c r="C56" s="72"/>
@@ -38655,7 +38628,7 @@
     </row>
     <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B57" s="72"/>
       <c r="C57" s="72"/>
@@ -38663,7 +38636,7 @@
     </row>
     <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B58" s="72"/>
       <c r="C58" s="72"/>
@@ -38671,108 +38644,80 @@
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F60" s="122" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G60" s="121"/>
       <c r="H60" s="121"/>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F61" s="121"/>
       <c r="G61" s="121"/>
       <c r="H61" s="121"/>
     </row>
-    <row r="62" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C62" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="61" t="s">
-        <v>4</v>
-      </c>
+    <row r="62" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="132"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="133"/>
       <c r="F62" s="121"/>
       <c r="G62" s="121"/>
       <c r="H62" s="121"/>
     </row>
     <row r="63" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="78"/>
+      <c r="A63" s="134"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="136"/>
       <c r="F63" s="121"/>
       <c r="G63" s="121"/>
       <c r="H63" s="121"/>
     </row>
     <row r="64" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="78"/>
+      <c r="A64" s="134"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="136"/>
       <c r="F64" s="123"/>
       <c r="G64" s="123"/>
       <c r="H64" s="123"/>
     </row>
     <row r="65" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="45"/>
-      <c r="F65" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="117"/>
-    </row>
-    <row r="66" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="79" t="s">
-        <v>53</v>
-      </c>
+      <c r="A65" s="134"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="136"/>
+      <c r="F65" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="116"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="132"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="133"/>
       <c r="F66" s="44" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G66" s="83"/>
       <c r="H66" s="83"/>
       <c r="I66" s="82"/>
     </row>
-    <row r="67" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="53"/>
+    <row r="67" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="134"/>
+      <c r="B67" s="134"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="134"/>
       <c r="F67" s="65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G67" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H67" s="60" t="s">
         <v>53</v>
@@ -38781,75 +38726,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>4</v>
-      </c>
+    <row r="68" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="132"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="133"/>
       <c r="F68" s="80" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G68" s="75"/>
       <c r="I68" s="78"/>
     </row>
     <row r="69" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="78"/>
+      <c r="A69" s="134"/>
+      <c r="B69" s="137"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="136"/>
       <c r="F69" s="80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G69" s="75"/>
       <c r="I69" s="78"/>
     </row>
     <row r="70" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="75"/>
-      <c r="D70" s="78"/>
+      <c r="A70" s="134"/>
+      <c r="B70" s="134"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="136"/>
       <c r="F70" s="56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G70" s="46"/>
       <c r="H70" s="46"/>
       <c r="I70" s="45"/>
     </row>
     <row r="71" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="78"/>
+      <c r="A71" s="134"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="136"/>
       <c r="F71" s="80"/>
       <c r="I71" s="78"/>
     </row>
     <row r="72" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="75"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="78"/>
+      <c r="A72" s="134"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="136"/>
       <c r="F72" s="65" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G72" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H72" s="60" t="s">
         <v>53</v>
@@ -38859,75 +38787,63 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="78"/>
+      <c r="A73" s="134"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="136"/>
       <c r="F73" s="80" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G73" s="75"/>
       <c r="I73" s="78"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="75"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="78"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="134"/>
+      <c r="D74" s="136"/>
       <c r="F74" s="80" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G74" s="75"/>
       <c r="H74" s="74"/>
       <c r="I74" s="78"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="81"/>
-      <c r="B75" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="79" t="s">
-        <v>53</v>
-      </c>
+      <c r="A75" s="136"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="133"/>
+      <c r="D75" s="133"/>
       <c r="F75" s="80" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G75" s="75"/>
       <c r="H75" s="74"/>
       <c r="I75" s="78"/>
     </row>
-    <row r="76" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="64"/>
+    <row r="76" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="134"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="134"/>
       <c r="F76" s="80" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G76" s="75"/>
       <c r="H76" s="74"/>
       <c r="I76" s="78"/>
     </row>
-    <row r="77" spans="1:9" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F77" s="81"/>
       <c r="G77" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H77" s="101"/>
       <c r="I77" s="78"/>
     </row>
     <row r="78" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F78" s="48" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G78" s="49"/>
       <c r="H78" s="50"/>
@@ -38941,10 +38857,10 @@
     </row>
     <row r="80" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F80" s="41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G80" s="76" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H80" s="76" t="s">
         <v>52</v>
@@ -38955,7 +38871,7 @@
     </row>
     <row r="81" spans="6:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F81" s="56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G81" s="46"/>
       <c r="H81" s="46"/>
@@ -38967,10 +38883,10 @@
     </row>
     <row r="83" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F83" s="65" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G83" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H83" s="60" t="s">
         <v>53</v>
@@ -38981,28 +38897,28 @@
     </row>
     <row r="84" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F84" s="80" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G84" s="75"/>
       <c r="I84" s="78"/>
     </row>
     <row r="85" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F85" s="80" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G85" s="75"/>
       <c r="I85" s="78"/>
     </row>
     <row r="86" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F86" s="80" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G86" s="77"/>
       <c r="I86" s="78"/>
     </row>
     <row r="87" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F87" s="80" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G87" s="75"/>
       <c r="H87" s="75"/>
@@ -39010,7 +38926,7 @@
     </row>
     <row r="88" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F88" s="80" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G88" s="75"/>
       <c r="H88" s="74"/>
@@ -39018,7 +38934,7 @@
     </row>
     <row r="89" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F89" s="80" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G89" s="75"/>
       <c r="H89" s="74"/>
@@ -39027,7 +38943,7 @@
     <row r="90" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F90" s="81"/>
       <c r="G90" s="76" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H90" s="76" t="s">
         <v>52</v>
@@ -39038,7 +38954,7 @@
     </row>
     <row r="91" spans="6:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F91" s="56" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G91" s="46"/>
       <c r="H91" s="46"/>
@@ -39052,7 +38968,7 @@
     </row>
     <row r="93" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F93" s="65" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G93" s="62"/>
       <c r="H93" s="62"/>
@@ -39064,10 +38980,10 @@
     </row>
     <row r="95" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F95" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G95" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H95" s="76" t="s">
         <v>53</v>
@@ -39082,14 +38998,14 @@
     </row>
     <row r="97" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F97" s="80" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G97" s="75"/>
       <c r="I97" s="78"/>
     </row>
     <row r="98" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F98" s="80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G98" s="75"/>
       <c r="H98" s="74"/>
@@ -39097,7 +39013,7 @@
     </row>
     <row r="99" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F99" s="80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G99" s="75"/>
       <c r="H99" s="74"/>
@@ -39105,7 +39021,7 @@
     </row>
     <row r="100" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F100" s="80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G100" s="75"/>
       <c r="H100" s="77"/>
@@ -39113,7 +39029,7 @@
     </row>
     <row r="101" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F101" s="80" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G101" s="75"/>
       <c r="H101" s="77"/>
@@ -39121,7 +39037,7 @@
     </row>
     <row r="102" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F102" s="80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G102" s="75"/>
       <c r="H102" s="77"/>
@@ -39129,14 +39045,14 @@
     </row>
     <row r="103" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F103" s="80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G103" s="75"/>
       <c r="I103" s="78"/>
     </row>
     <row r="104" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F104" s="80" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G104" s="75"/>
       <c r="H104" s="75"/>
@@ -39144,7 +39060,7 @@
     </row>
     <row r="105" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F105" s="80" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G105" s="75"/>
       <c r="H105" s="77"/>
@@ -39152,7 +39068,7 @@
     </row>
     <row r="106" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F106" s="80" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G106" s="75"/>
       <c r="H106" s="77"/>
@@ -39160,7 +39076,7 @@
     </row>
     <row r="107" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F107" s="80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G107" s="75"/>
       <c r="H107" s="75"/>
@@ -39168,14 +39084,14 @@
     </row>
     <row r="108" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F108" s="80" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G108" s="75"/>
       <c r="I108" s="78"/>
     </row>
     <row r="109" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F109" s="80" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G109" s="75"/>
       <c r="H109" s="77"/>
@@ -39183,21 +39099,21 @@
     </row>
     <row r="110" spans="6:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F110" s="41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G110" s="38"/>
       <c r="I110" s="78"/>
     </row>
     <row r="111" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F111" s="80" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G111" s="75"/>
       <c r="I111" s="78"/>
     </row>
     <row r="112" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F112" s="80" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G112" s="75"/>
       <c r="H112" s="77"/>
@@ -39205,7 +39121,7 @@
     </row>
     <row r="113" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F113" s="80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G113" s="75"/>
       <c r="H113" s="74"/>
@@ -39213,7 +39129,7 @@
     </row>
     <row r="114" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F114" s="80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G114" s="75"/>
       <c r="H114" s="77"/>
@@ -39221,7 +39137,7 @@
     </row>
     <row r="115" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F115" s="80" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G115" s="75"/>
       <c r="H115" s="75"/>
@@ -39229,7 +39145,7 @@
     </row>
     <row r="116" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F116" s="80" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G116" s="75"/>
       <c r="H116" s="74"/>
@@ -39237,14 +39153,14 @@
     </row>
     <row r="117" spans="6:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F117" s="41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G117" s="38"/>
       <c r="I117" s="78"/>
     </row>
     <row r="118" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F118" s="80" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G118" s="75"/>
       <c r="H118" s="74"/>
@@ -39252,7 +39168,7 @@
     </row>
     <row r="119" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F119" s="80" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G119" s="75"/>
       <c r="H119" s="74"/>
@@ -39260,7 +39176,7 @@
     </row>
     <row r="120" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F120" s="80" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G120" s="75"/>
       <c r="H120" s="75"/>
@@ -39268,7 +39184,7 @@
     </row>
     <row r="121" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F121" s="80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G121" s="75"/>
       <c r="H121" s="75"/>
@@ -39276,7 +39192,7 @@
     </row>
     <row r="122" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F122" s="80" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G122" s="75"/>
       <c r="H122" s="75"/>
@@ -39284,7 +39200,7 @@
     </row>
     <row r="123" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F123" s="80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G123" s="75"/>
       <c r="H123" s="75"/>
@@ -39292,7 +39208,7 @@
     </row>
     <row r="124" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F124" s="80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G124" s="75"/>
       <c r="H124" s="75"/>
@@ -39300,7 +39216,7 @@
     </row>
     <row r="125" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F125" s="80" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G125" s="75"/>
       <c r="H125" s="74"/>
@@ -39312,10 +39228,10 @@
     </row>
     <row r="127" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F127" s="40" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G127" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H127" s="76" t="s">
         <v>53</v>
@@ -39330,14 +39246,14 @@
     </row>
     <row r="129" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F129" s="80" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G129" s="75"/>
       <c r="I129" s="78"/>
     </row>
     <row r="130" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F130" s="80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G130" s="75"/>
       <c r="H130" s="74"/>
@@ -39345,7 +39261,7 @@
     </row>
     <row r="131" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F131" s="80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G131" s="75"/>
       <c r="H131" s="74"/>
@@ -39353,14 +39269,14 @@
     </row>
     <row r="132" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F132" s="80" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G132" s="74"/>
       <c r="I132" s="78"/>
     </row>
     <row r="133" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F133" s="80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G133" s="75"/>
       <c r="H133" s="77"/>
@@ -39368,7 +39284,7 @@
     </row>
     <row r="134" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F134" s="80" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G134" s="75"/>
       <c r="H134" s="77"/>
@@ -39376,14 +39292,14 @@
     </row>
     <row r="135" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F135" s="80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G135" s="75"/>
       <c r="I135" s="78"/>
     </row>
     <row r="136" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F136" s="80" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G136" s="75"/>
       <c r="H136" s="75"/>
@@ -39391,7 +39307,7 @@
     </row>
     <row r="137" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F137" s="80" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G137" s="75"/>
       <c r="H137" s="77"/>
@@ -39399,21 +39315,21 @@
     </row>
     <row r="138" spans="6:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F138" s="41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G138" s="38"/>
       <c r="I138" s="78"/>
     </row>
     <row r="139" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F139" s="80" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G139" s="75"/>
       <c r="I139" s="78"/>
     </row>
     <row r="140" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F140" s="80" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G140" s="75"/>
       <c r="H140" s="77"/>
@@ -39421,7 +39337,7 @@
     </row>
     <row r="141" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F141" s="80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G141" s="75"/>
       <c r="H141" s="74"/>
@@ -39429,7 +39345,7 @@
     </row>
     <row r="142" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F142" s="80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G142" s="75"/>
       <c r="H142" s="77"/>
@@ -39437,21 +39353,21 @@
     </row>
     <row r="143" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F143" s="42" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G143" s="75"/>
       <c r="I143" s="78"/>
     </row>
     <row r="144" spans="6:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F144" s="41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G144" s="38"/>
       <c r="I144" s="78"/>
     </row>
     <row r="145" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F145" s="80" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G145" s="75"/>
       <c r="H145" s="74"/>
@@ -39459,7 +39375,7 @@
     </row>
     <row r="146" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F146" s="80" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G146" s="75"/>
       <c r="H146" s="74"/>
@@ -39467,7 +39383,7 @@
     </row>
     <row r="147" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F147" s="80" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G147" s="75"/>
       <c r="H147" s="75"/>
@@ -39475,7 +39391,7 @@
     </row>
     <row r="148" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F148" s="80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G148" s="75"/>
       <c r="H148" s="75"/>
@@ -39483,7 +39399,7 @@
     </row>
     <row r="149" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F149" s="80" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G149" s="75"/>
       <c r="H149" s="75"/>
@@ -39491,7 +39407,7 @@
     </row>
     <row r="150" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F150" s="80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G150" s="75"/>
       <c r="H150" s="75"/>
@@ -39499,7 +39415,7 @@
     </row>
     <row r="151" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F151" s="80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G151" s="75"/>
       <c r="H151" s="75"/>
@@ -39507,7 +39423,7 @@
     </row>
     <row r="152" spans="6:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F152" s="56" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G152" s="46"/>
       <c r="H152" s="57"/>
@@ -39519,10 +39435,10 @@
     </row>
     <row r="154" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F154" s="65" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G154" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H154" s="60" t="s">
         <v>53</v>
@@ -39533,14 +39449,14 @@
     </row>
     <row r="155" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F155" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G155" s="75"/>
       <c r="I155" s="78"/>
     </row>
     <row r="156" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F156" s="80" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G156" s="75"/>
       <c r="H156" s="74"/>
@@ -39548,7 +39464,7 @@
     </row>
     <row r="157" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F157" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G157" s="75"/>
       <c r="H157" s="74"/>
@@ -39556,7 +39472,7 @@
     </row>
     <row r="158" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F158" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G158" s="75"/>
       <c r="H158" s="74"/>
@@ -39565,14 +39481,14 @@
     <row r="159" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F159" s="81"/>
       <c r="G159" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H159" s="101"/>
       <c r="I159" s="78"/>
     </row>
     <row r="160" spans="6:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F160" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G160" s="49"/>
       <c r="H160" s="50"/>
@@ -39586,10 +39502,10 @@
     </row>
     <row r="162" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F162" s="65" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G162" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H162" s="60" t="s">
         <v>53</v>
@@ -39600,14 +39516,14 @@
     </row>
     <row r="163" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F163" s="80" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G163" s="75"/>
       <c r="I163" s="78"/>
     </row>
     <row r="164" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F164" s="80" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G164" s="75"/>
       <c r="H164" s="74"/>
@@ -39615,7 +39531,7 @@
     </row>
     <row r="165" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F165" s="80" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G165" s="75"/>
       <c r="H165" s="74"/>
@@ -39623,7 +39539,7 @@
     </row>
     <row r="166" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F166" s="80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G166" s="75"/>
       <c r="H166" s="74"/>
@@ -39632,14 +39548,14 @@
     <row r="167" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F167" s="81"/>
       <c r="G167" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H167" s="101"/>
       <c r="I167" s="78"/>
     </row>
     <row r="168" spans="6:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F168" s="48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G168" s="49"/>
       <c r="H168" s="50"/>
@@ -39652,7 +39568,7 @@
     </row>
     <row r="170" spans="6:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F170" s="52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G170" s="59"/>
       <c r="H170" s="55"/>
@@ -39664,10 +39580,10 @@
     </row>
     <row r="172" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F172" s="65" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G172" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H172" s="60" t="s">
         <v>53</v>
@@ -39678,14 +39594,14 @@
     </row>
     <row r="173" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F173" s="80" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G173" s="75"/>
       <c r="I173" s="78"/>
     </row>
     <row r="174" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F174" s="81" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G174" s="77"/>
       <c r="H174" s="101"/>
@@ -39693,7 +39609,7 @@
     </row>
     <row r="175" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F175" s="80" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G175" s="75"/>
       <c r="H175" s="74"/>
@@ -39701,7 +39617,7 @@
     </row>
     <row r="176" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F176" s="80" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G176" s="75"/>
       <c r="H176" s="74"/>
@@ -39709,7 +39625,7 @@
     </row>
     <row r="177" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F177" s="80" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G177" s="75"/>
       <c r="H177" s="74"/>
@@ -39718,14 +39634,14 @@
     <row r="178" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F178" s="81"/>
       <c r="G178" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H178" s="101"/>
       <c r="I178" s="78"/>
     </row>
     <row r="179" spans="5:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F179" s="48" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G179" s="49"/>
       <c r="H179" s="50"/>
@@ -39739,10 +39655,10 @@
     </row>
     <row r="181" spans="5:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F181" s="65" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G181" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H181" s="60" t="s">
         <v>53</v>
@@ -39753,14 +39669,14 @@
     </row>
     <row r="182" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F182" s="80" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G182" s="75"/>
       <c r="I182" s="78"/>
     </row>
     <row r="183" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F183" s="80" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G183" s="75"/>
       <c r="H183" s="74"/>
@@ -39768,7 +39684,7 @@
     </row>
     <row r="184" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F184" s="80" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G184" s="75"/>
       <c r="H184" s="74"/>
@@ -39776,7 +39692,7 @@
     </row>
     <row r="185" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F185" s="80" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G185" s="75"/>
       <c r="H185" s="74"/>
@@ -39785,14 +39701,14 @@
     <row r="186" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F186" s="81"/>
       <c r="G186" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H186" s="101"/>
       <c r="I186" s="78"/>
     </row>
     <row r="187" spans="5:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F187" s="48" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G187" s="49"/>
       <c r="H187" s="50"/>
@@ -39806,7 +39722,7 @@
     </row>
     <row r="189" spans="5:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F189" s="65" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G189" s="60" t="s">
         <v>51</v>
@@ -39820,7 +39736,7 @@
     </row>
     <row r="190" spans="5:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F190" s="85" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G190" s="86"/>
       <c r="H190" s="87"/>
@@ -39986,7 +39902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -40004,13 +39920,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
       <c r="F1" s="128" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G1" s="129"/>
       <c r="H1" s="129"/>
@@ -40018,7 +39934,7 @@
     </row>
     <row r="2" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="127" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
@@ -40029,14 +39945,14 @@
     </row>
     <row r="3" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C3" s="23"/>
       <c r="F3" s="124" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G3" s="121"/>
       <c r="H3" s="101"/>
@@ -40044,7 +39960,7 @@
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F4" s="36" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="101"/>
@@ -40052,13 +39968,13 @@
     </row>
     <row r="5" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G5" s="126"/>
       <c r="H5" s="50"/>
@@ -40067,10 +39983,10 @@
     <row r="6" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="F6" s="41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H6" s="76" t="s">
         <v>53</v>
@@ -40081,10 +39997,10 @@
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>53</v>
@@ -40093,35 +40009,35 @@
         <v>4</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G7" s="75"/>
       <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="80" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D8" s="78"/>
       <c r="F8" s="80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G8" s="75"/>
       <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D9" s="78"/>
       <c r="F9" s="56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
@@ -40129,7 +40045,7 @@
     </row>
     <row r="10" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -40141,18 +40057,18 @@
     </row>
     <row r="11" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="47"/>
       <c r="F11" s="41" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H11" s="76" t="s">
         <v>53</v>
@@ -40163,10 +40079,10 @@
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="132" t="s">
-        <v>117</v>
+        <v>173</v>
+      </c>
+      <c r="B12" s="117" t="s">
+        <v>113</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>53</v>
@@ -40175,21 +40091,21 @@
         <v>4</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G12" s="75"/>
       <c r="I12" s="78"/>
     </row>
     <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A13" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D13" s="78"/>
       <c r="F13" s="80" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G13" s="75"/>
       <c r="H13" s="74"/>
@@ -40197,17 +40113,17 @@
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="80" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B14" s="75">
         <v>120</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D14" s="78"/>
       <c r="F14" s="80" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G14" s="75"/>
       <c r="H14" s="74"/>
@@ -40215,17 +40131,17 @@
     </row>
     <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B15" s="75">
         <v>24</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D15" s="78"/>
       <c r="F15" s="80" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G15" s="75"/>
       <c r="H15" s="74"/>
@@ -40233,14 +40149,14 @@
     </row>
     <row r="16" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="74"/>
       <c r="D16" s="78"/>
       <c r="F16" s="81"/>
       <c r="G16" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H16" s="101"/>
       <c r="I16" s="78"/>
@@ -40248,12 +40164,12 @@
     <row r="17" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81"/>
       <c r="B17" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C17" s="101"/>
       <c r="D17" s="78"/>
       <c r="F17" s="48" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="50"/>
@@ -40261,7 +40177,7 @@
     </row>
     <row r="18" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -40273,10 +40189,10 @@
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" s="76" t="s">
         <v>53</v>
@@ -40285,10 +40201,10 @@
         <v>4</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H19" s="76" t="s">
         <v>52</v>
@@ -40299,14 +40215,14 @@
     </row>
     <row r="20" spans="1:9" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B20" s="105" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D20" s="78"/>
       <c r="F20" s="56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
@@ -40314,13 +40230,13 @@
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B21" s="75">
         <v>140</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D21" s="78"/>
       <c r="F21" s="52"/>
@@ -40330,20 +40246,20 @@
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B22" s="75">
         <v>20</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D22" s="78"/>
       <c r="F22" s="41" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H22" s="76" t="s">
         <v>53</v>
@@ -40354,17 +40270,17 @@
     </row>
     <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B23" s="75">
         <v>10</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D23" s="78"/>
       <c r="F23" s="80" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G23" s="75"/>
       <c r="I23" s="78"/>
@@ -40372,35 +40288,35 @@
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="81"/>
       <c r="B24" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C24" s="101"/>
       <c r="D24" s="78"/>
       <c r="F24" s="80" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G24" s="75"/>
       <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
       <c r="D25" s="45"/>
       <c r="F25" s="80" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G25" s="77"/>
       <c r="I25" s="78"/>
     </row>
     <row r="26" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" s="76" t="s">
         <v>53</v>
@@ -40409,7 +40325,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="80" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G26" s="75"/>
       <c r="H26" s="75"/>
@@ -40417,14 +40333,14 @@
     </row>
     <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="80" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B27" s="105" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D27" s="78"/>
       <c r="F27" s="80" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G27" s="75"/>
       <c r="H27" s="74"/>
@@ -40432,17 +40348,17 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="80" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B28" s="75">
         <v>70</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D28" s="78"/>
       <c r="F28" s="80" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G28" s="75"/>
       <c r="H28" s="74"/>
@@ -40450,19 +40366,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="80" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B29" s="75">
         <v>24</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D29" s="78"/>
       <c r="E29" s="101"/>
       <c r="F29" s="81"/>
       <c r="G29" s="76" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H29" s="76" t="s">
         <v>52</v>
@@ -40473,14 +40389,14 @@
     </row>
     <row r="30" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="74"/>
       <c r="D30" s="78"/>
       <c r="E30" s="101"/>
       <c r="F30" s="56" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
@@ -40489,7 +40405,7 @@
     <row r="31" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81"/>
       <c r="B31" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C31" s="101"/>
       <c r="D31" s="78"/>
@@ -40500,22 +40416,22 @@
     </row>
     <row r="32" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
       <c r="D32" s="45"/>
       <c r="F32" s="41" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I32" s="78"/>
     </row>
     <row r="33" spans="1:9" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C33" s="76" t="s">
         <v>53</v>
@@ -40528,17 +40444,17 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D34" s="78"/>
       <c r="F34" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G34" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H34" s="76" t="s">
         <v>53</v>
@@ -40549,13 +40465,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="111">
+        <v>175</v>
+      </c>
+      <c r="B35" s="110">
         <v>50</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D35" s="78"/>
       <c r="F35" s="40"/>
@@ -40563,26 +40479,26 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="74"/>
       <c r="D36" s="78"/>
       <c r="F36" s="80" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G36" s="75"/>
       <c r="I36" s="78"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="74"/>
       <c r="D37" s="78"/>
       <c r="F37" s="80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G37" s="75"/>
       <c r="H37" s="74"/>
@@ -40591,12 +40507,12 @@
     <row r="38" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="81"/>
       <c r="B38" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C38" s="101"/>
       <c r="D38" s="78"/>
       <c r="F38" s="80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G38" s="75"/>
       <c r="H38" s="74"/>
@@ -40604,13 +40520,13 @@
     </row>
     <row r="39" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
       <c r="D39" s="45"/>
       <c r="F39" s="80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G39" s="75"/>
       <c r="H39" s="77"/>
@@ -40618,7 +40534,7 @@
     </row>
     <row r="40" spans="1:9" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F40" s="80" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G40" s="75"/>
       <c r="H40" s="77"/>
@@ -40626,7 +40542,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F41" s="80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G41" s="75"/>
       <c r="H41" s="77"/>
@@ -40634,14 +40550,14 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F42" s="80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G42" s="75"/>
       <c r="I42" s="78"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F43" s="80" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G43" s="75"/>
       <c r="H43" s="75"/>
@@ -40649,7 +40565,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F44" s="80" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G44" s="75"/>
       <c r="H44" s="77"/>
@@ -40657,7 +40573,7 @@
     </row>
     <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="80" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G45" s="75"/>
       <c r="H45" s="77"/>
@@ -40665,7 +40581,7 @@
     </row>
     <row r="46" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G46" s="75"/>
       <c r="H46" s="75"/>
@@ -40673,14 +40589,14 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F47" s="80" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G47" s="75"/>
       <c r="I47" s="78"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F48" s="80" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G48" s="75"/>
       <c r="H48" s="77"/>
@@ -40688,21 +40604,21 @@
     </row>
     <row r="49" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G49" s="38"/>
       <c r="I49" s="78"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F50" s="80" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G50" s="75"/>
       <c r="I50" s="78"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F51" s="80" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G51" s="75"/>
       <c r="H51" s="77"/>
@@ -40710,7 +40626,7 @@
     </row>
     <row r="52" spans="4:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G52" s="75"/>
       <c r="H52" s="74"/>
@@ -40719,7 +40635,7 @@
     <row r="53" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="101"/>
       <c r="F53" s="80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G53" s="75"/>
       <c r="H53" s="77"/>
@@ -40727,7 +40643,7 @@
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F54" s="80" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G54" s="75"/>
       <c r="H54" s="75"/>
@@ -40735,7 +40651,7 @@
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F55" s="80" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G55" s="75"/>
       <c r="H55" s="74"/>
@@ -40743,14 +40659,14 @@
     </row>
     <row r="56" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F56" s="41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G56" s="38"/>
       <c r="I56" s="78"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F57" s="80" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G57" s="75"/>
       <c r="H57" s="74"/>
@@ -40758,7 +40674,7 @@
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F58" s="80" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G58" s="75"/>
       <c r="H58" s="74"/>
@@ -40766,7 +40682,7 @@
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F59" s="80" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G59" s="75"/>
       <c r="H59" s="75"/>
@@ -40774,7 +40690,7 @@
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F60" s="80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G60" s="75"/>
       <c r="H60" s="75"/>
@@ -40782,7 +40698,7 @@
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F61" s="80" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G61" s="75"/>
       <c r="H61" s="75"/>
@@ -40790,7 +40706,7 @@
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F62" s="80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G62" s="75"/>
       <c r="H62" s="75"/>
@@ -40798,7 +40714,7 @@
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F63" s="80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G63" s="75"/>
       <c r="H63" s="75"/>
@@ -40806,7 +40722,7 @@
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F64" s="80" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G64" s="75"/>
       <c r="H64" s="74"/>
@@ -40818,10 +40734,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F66" s="40" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G66" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H66" s="76" t="s">
         <v>53</v>
@@ -40836,14 +40752,14 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F68" s="80" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G68" s="75"/>
       <c r="I68" s="78"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F69" s="80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G69" s="75"/>
       <c r="H69" s="74"/>
@@ -40851,7 +40767,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F70" s="80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G70" s="75"/>
       <c r="H70" s="74"/>
@@ -40859,14 +40775,14 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F71" s="80" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G71" s="74"/>
       <c r="I71" s="78"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F72" s="80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G72" s="75"/>
       <c r="H72" s="77"/>
@@ -40874,7 +40790,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F73" s="80" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G73" s="75"/>
       <c r="H73" s="77"/>
@@ -40882,7 +40798,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F74" s="80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G74" s="75"/>
       <c r="I74" s="78"/>
@@ -40890,7 +40806,7 @@
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D75" s="101"/>
       <c r="F75" s="80" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G75" s="75"/>
       <c r="H75" s="75"/>
@@ -40900,7 +40816,7 @@
       <c r="D76" s="101"/>
       <c r="E76" s="14"/>
       <c r="F76" s="80" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G76" s="75"/>
       <c r="H76" s="77"/>
@@ -40910,7 +40826,7 @@
       <c r="D77" s="101"/>
       <c r="E77" s="14"/>
       <c r="F77" s="41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G77" s="38"/>
       <c r="I77" s="78"/>
@@ -40918,7 +40834,7 @@
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D78" s="101"/>
       <c r="F78" s="80" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G78" s="75"/>
       <c r="I78" s="78"/>
@@ -40927,7 +40843,7 @@
       <c r="A79" s="27"/>
       <c r="D79" s="101"/>
       <c r="F79" s="80" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G79" s="75"/>
       <c r="H79" s="77"/>
@@ -40936,7 +40852,7 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D80" s="101"/>
       <c r="F80" s="80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G80" s="75"/>
       <c r="H80" s="74"/>
@@ -40945,7 +40861,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D81" s="101"/>
       <c r="F81" s="80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G81" s="75"/>
       <c r="H81" s="77"/>
@@ -40954,7 +40870,7 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D82" s="101"/>
       <c r="F82" s="42" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G82" s="75"/>
       <c r="I82" s="78"/>
@@ -40962,7 +40878,7 @@
     <row r="83" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="101"/>
       <c r="F83" s="41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G83" s="38"/>
       <c r="I83" s="78"/>
@@ -40970,7 +40886,7 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D84" s="101"/>
       <c r="F84" s="80" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G84" s="75"/>
       <c r="H84" s="74"/>
@@ -40979,7 +40895,7 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D85" s="101"/>
       <c r="F85" s="80" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G85" s="75"/>
       <c r="H85" s="74"/>
@@ -40989,7 +40905,7 @@
       <c r="A86" s="27"/>
       <c r="D86" s="101"/>
       <c r="F86" s="80" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G86" s="75"/>
       <c r="H86" s="75"/>
@@ -40998,7 +40914,7 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D87" s="101"/>
       <c r="F87" s="80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G87" s="75"/>
       <c r="H87" s="75"/>
@@ -41007,7 +40923,7 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D88" s="101"/>
       <c r="F88" s="80" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G88" s="75"/>
       <c r="H88" s="75"/>
@@ -41016,7 +40932,7 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D89" s="101"/>
       <c r="F89" s="80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G89" s="75"/>
       <c r="H89" s="75"/>
@@ -41025,7 +40941,7 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D90" s="101"/>
       <c r="F90" s="80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G90" s="75"/>
       <c r="H90" s="75"/>
@@ -41035,7 +40951,7 @@
       <c r="D91" s="101"/>
       <c r="E91" s="27"/>
       <c r="F91" s="56" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G91" s="46"/>
       <c r="H91" s="57"/>
@@ -41051,10 +40967,10 @@
     <row r="93" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D93" s="101"/>
       <c r="F93" s="41" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G93" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H93" s="76" t="s">
         <v>53</v>
@@ -41066,7 +40982,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D94" s="101"/>
       <c r="F94" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G94" s="75"/>
       <c r="I94" s="78"/>
@@ -41074,7 +40990,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D95" s="101"/>
       <c r="F95" s="80" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G95" s="75"/>
       <c r="H95" s="74"/>
@@ -41084,7 +41000,7 @@
       <c r="A96" s="27"/>
       <c r="D96" s="37"/>
       <c r="F96" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G96" s="75"/>
       <c r="H96" s="74"/>
@@ -41093,7 +41009,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D97" s="101"/>
       <c r="F97" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G97" s="75"/>
       <c r="H97" s="74"/>
@@ -41104,7 +41020,7 @@
       <c r="E98" s="27"/>
       <c r="F98" s="81"/>
       <c r="G98" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H98" s="101"/>
       <c r="I98" s="78"/>
@@ -41112,7 +41028,7 @@
     <row r="99" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D99" s="101"/>
       <c r="F99" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G99" s="49"/>
       <c r="H99" s="50"/>
@@ -41128,10 +41044,10 @@
     <row r="101" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D101" s="101"/>
       <c r="F101" s="41" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G101" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H101" s="76" t="s">
         <v>53</v>
@@ -41144,7 +41060,7 @@
       <c r="A102" s="27"/>
       <c r="D102" s="37"/>
       <c r="F102" s="80" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G102" s="75"/>
       <c r="I102" s="78"/>
@@ -41152,7 +41068,7 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D103" s="101"/>
       <c r="F103" s="80" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G103" s="75"/>
       <c r="H103" s="74"/>
@@ -41161,7 +41077,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D104" s="101"/>
       <c r="F104" s="80" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G104" s="75"/>
       <c r="H104" s="74"/>
@@ -41170,7 +41086,7 @@
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D105" s="101"/>
       <c r="F105" s="80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G105" s="75"/>
       <c r="H105" s="74"/>
@@ -41180,7 +41096,7 @@
       <c r="D106" s="101"/>
       <c r="F106" s="81"/>
       <c r="G106" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H106" s="101"/>
       <c r="I106" s="78"/>
@@ -41188,7 +41104,7 @@
     <row r="107" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D107" s="101"/>
       <c r="F107" s="48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G107" s="49"/>
       <c r="H107" s="50"/>
@@ -41205,7 +41121,7 @@
     <row r="109" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D109" s="101"/>
       <c r="F109" s="52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G109" s="59"/>
       <c r="H109" s="55"/>
@@ -41221,10 +41137,10 @@
       <c r="A111" s="27"/>
       <c r="D111" s="101"/>
       <c r="F111" s="65" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G111" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H111" s="60" t="s">
         <v>53</v>
@@ -41237,7 +41153,7 @@
       <c r="A112" s="27"/>
       <c r="D112" s="101"/>
       <c r="F112" s="80" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G112" s="75"/>
       <c r="I112" s="78"/>
@@ -41246,7 +41162,7 @@
       <c r="A113" s="101"/>
       <c r="D113" s="101"/>
       <c r="F113" s="81" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G113" s="77"/>
       <c r="H113" s="101"/>
@@ -41256,7 +41172,7 @@
       <c r="A114" s="101"/>
       <c r="D114" s="101"/>
       <c r="F114" s="80" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G114" s="75"/>
       <c r="H114" s="74"/>
@@ -41266,7 +41182,7 @@
       <c r="A115" s="101"/>
       <c r="D115" s="101"/>
       <c r="F115" s="80" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G115" s="75"/>
       <c r="H115" s="74"/>
@@ -41276,7 +41192,7 @@
       <c r="A116" s="101"/>
       <c r="D116" s="101"/>
       <c r="F116" s="80" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G116" s="75"/>
       <c r="H116" s="74"/>
@@ -41287,7 +41203,7 @@
       <c r="D117" s="101"/>
       <c r="F117" s="81"/>
       <c r="G117" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H117" s="101"/>
       <c r="I117" s="78"/>
@@ -41296,7 +41212,7 @@
       <c r="A118" s="101"/>
       <c r="D118" s="101"/>
       <c r="F118" s="48" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G118" s="49"/>
       <c r="H118" s="50"/>
@@ -41314,10 +41230,10 @@
       <c r="A120" s="101"/>
       <c r="D120" s="101"/>
       <c r="F120" s="65" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G120" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H120" s="60" t="s">
         <v>53</v>
@@ -41330,7 +41246,7 @@
       <c r="A121" s="27"/>
       <c r="D121" s="101"/>
       <c r="F121" s="80" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G121" s="75"/>
       <c r="I121" s="78"/>
@@ -41340,7 +41256,7 @@
       <c r="D122" s="101"/>
       <c r="E122" s="101"/>
       <c r="F122" s="80" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G122" s="75"/>
       <c r="H122" s="74"/>
@@ -41351,7 +41267,7 @@
       <c r="D123" s="101"/>
       <c r="E123" s="101"/>
       <c r="F123" s="80" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G123" s="75"/>
       <c r="H123" s="74"/>
@@ -41361,7 +41277,7 @@
       <c r="D124" s="101"/>
       <c r="E124" s="101"/>
       <c r="F124" s="80" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G124" s="75"/>
       <c r="H124" s="74"/>
@@ -41372,7 +41288,7 @@
       <c r="E125" s="101"/>
       <c r="F125" s="81"/>
       <c r="G125" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H125" s="101"/>
       <c r="I125" s="78"/>
@@ -41381,7 +41297,7 @@
       <c r="D126" s="101"/>
       <c r="E126" s="101"/>
       <c r="F126" s="48" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G126" s="49"/>
       <c r="H126" s="50"/>
@@ -41399,7 +41315,7 @@
       <c r="D128" s="101"/>
       <c r="E128" s="101"/>
       <c r="F128" s="65" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G128" s="60" t="s">
         <v>51</v>
@@ -41415,7 +41331,7 @@
       <c r="D129" s="101"/>
       <c r="E129" s="101"/>
       <c r="F129" s="85" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G129" s="86"/>
       <c r="H129" s="87"/>
@@ -41506,7 +41422,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="76"/>
@@ -41514,37 +41430,37 @@
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B2" s="119"/>
       <c r="C2" s="119"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>4</v>
@@ -41552,19 +41468,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B7" s="75"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -41575,7 +41491,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -41586,7 +41502,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -41597,7 +41513,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -41607,7 +41523,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="74"/>
@@ -41620,25 +41536,25 @@
     </row>
     <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H14" s="76" t="s">
         <v>4</v>
@@ -41646,19 +41562,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B15" s="75"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B16" s="75"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
@@ -41669,7 +41585,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
@@ -41680,7 +41596,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -41691,7 +41607,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -41701,7 +41617,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="74"/>
@@ -41711,25 +41627,25 @@
     </row>
     <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B23" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D23" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G23" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H23" s="76" t="s">
         <v>4</v>
@@ -41737,19 +41653,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B24" s="75"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B25" s="75"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -41760,25 +41676,25 @@
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B28" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D28" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F28" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G28" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H28" s="76" t="s">
         <v>4</v>
@@ -41786,19 +41702,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B29" s="75"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B30" s="75"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -41809,30 +41725,30 @@
     </row>
     <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B34" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F34" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G34" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H34" s="76" t="s">
         <v>4</v>
@@ -41840,23 +41756,23 @@
     </row>
     <row r="35" spans="1:8" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B36" s="106" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -41867,25 +41783,25 @@
     </row>
     <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B39" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D39" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G39" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H39" s="76" t="s">
         <v>4</v>
@@ -41893,21 +41809,21 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B40" s="106"/>
     </row>
     <row r="41" spans="1:8" ht="317" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B41" s="106" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -41918,25 +41834,25 @@
     </row>
     <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B44" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D44" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F44" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G44" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H44" s="76" t="s">
         <v>4</v>
@@ -41944,19 +41860,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B45" s="75"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B46" s="75"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -41967,25 +41883,25 @@
     </row>
     <row r="49" spans="1:16384" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B49" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D49" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E49" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F49" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G49" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H49" s="76" t="s">
         <v>4</v>
@@ -58369,19 +58285,19 @@
     </row>
     <row r="50" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B50" s="75"/>
     </row>
     <row r="51" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B51" s="75"/>
     </row>
     <row r="52" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -58393,25 +58309,25 @@
     <row r="53" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:16384" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B54" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D54" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F54" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G54" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H54" s="76" t="s">
         <v>4</v>
@@ -58419,19 +58335,19 @@
     </row>
     <row r="55" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B55" s="75"/>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B56" s="75"/>
     </row>
     <row r="57" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -58442,30 +58358,30 @@
     </row>
     <row r="59" spans="1:16384" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:16384" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B60" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D60" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E60" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G60" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H60" s="76" t="s">
         <v>4</v>
@@ -58473,19 +58389,19 @@
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B61" s="75"/>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B62" s="75"/>
     </row>
     <row r="63" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -58496,7 +58412,7 @@
     </row>
     <row r="64" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -58507,13 +58423,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B65" s="75"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -58524,25 +58440,25 @@
     </row>
     <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B68" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C68" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D68" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E68" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F68" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G68" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H68" s="76" t="s">
         <v>4</v>
@@ -58550,19 +58466,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B69" s="75"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B70" s="75"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -58573,25 +58489,25 @@
     </row>
     <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B73" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C73" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D73" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E73" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F73" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H73" s="76" t="s">
         <v>4</v>
@@ -58599,19 +58515,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B74" s="75"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B75" s="75"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -58622,30 +58538,30 @@
     </row>
     <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B79" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C79" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D79" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E79" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F79" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G79" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H79" s="76" t="s">
         <v>4</v>
@@ -58653,19 +58569,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B80" s="75"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B81" s="75"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -58677,30 +58593,30 @@
     <row r="83" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B85" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C85" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D85" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E85" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F85" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G85" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H85" s="76" t="s">
         <v>4</v>
@@ -58708,23 +58624,23 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>237</v>
-      </c>
-      <c r="B86" s="110" t="s">
-        <v>269</v>
+        <v>229</v>
+      </c>
+      <c r="B86" s="109" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -58735,25 +58651,25 @@
     </row>
     <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B90" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D90" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E90" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F90" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G90" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H90" s="76" t="s">
         <v>4</v>
@@ -58761,25 +58677,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B91" s="74"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B92" s="75"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B93" s="75"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -58790,25 +58706,25 @@
     </row>
     <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B96" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C96" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D96" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F96" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G96" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H96" s="76" t="s">
         <v>4</v>
@@ -58816,19 +58732,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B97" s="75"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B98" s="75"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -58868,7 +58784,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -58877,37 +58793,37 @@
     </row>
     <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>4</v>
@@ -58915,14 +58831,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111">
+        <v>271</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110">
         <v>286.50310100000002</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="75"/>
@@ -58930,7 +58846,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="75"/>
@@ -58941,7 +58857,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -58952,7 +58868,7 @@
     </row>
     <row r="9" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="100" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -58963,7 +58879,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -58974,7 +58890,7 @@
     </row>
     <row r="11" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="100" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -58985,7 +58901,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -58996,7 +58912,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -59007,7 +58923,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -59018,7 +58934,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -59029,7 +58945,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -59040,13 +58956,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C17" s="75"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
@@ -59057,7 +58973,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -59068,37 +58984,37 @@
     </row>
     <row r="20" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="100" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B20" s="75"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B21" s="75"/>
     </row>
     <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="73" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B23" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D23" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G23" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H23" s="76" t="s">
         <v>4</v>
@@ -59106,7 +59022,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="101" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -59117,7 +59033,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="101" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
@@ -59128,7 +59044,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="101" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -59139,7 +59055,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
@@ -59150,7 +59066,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="101" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -59161,7 +59077,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -59172,18 +59088,18 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B30" s="75"/>
     </row>
     <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="73" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -59194,7 +59110,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -59205,7 +59121,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -59216,7 +59132,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="101" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -59227,7 +59143,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -59238,7 +59154,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -59249,31 +59165,31 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B39" s="75"/>
     </row>
     <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="73" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B41" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D41" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F41" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G41" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H41" s="76" t="s">
         <v>4</v>
@@ -59281,7 +59197,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -59292,7 +59208,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -59303,7 +59219,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -59314,7 +59230,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -59325,7 +59241,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -59336,7 +59252,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B47" s="75"/>
     </row>
@@ -59345,30 +59261,30 @@
     </row>
     <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="73" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B50" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D50" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G50" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H50" s="76" t="s">
         <v>4</v>
@@ -59376,13 +59292,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="101" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B51" s="75"/>
     </row>
     <row r="52" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="101" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -59393,7 +59309,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="100" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -59404,25 +59320,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B55" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D55" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E55" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F55" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G55" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H55" s="76" t="s">
         <v>4</v>
@@ -59430,19 +59346,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="101" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B56" s="75"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="101" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B57" s="75"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="101" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -59453,7 +59369,7 @@
     </row>
     <row r="59" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="100" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -59464,37 +59380,37 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="101" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B60" s="75"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B61" s="75"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B63" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C63" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D63" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E63" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F63" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G63" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H63" s="76" t="s">
         <v>4</v>
@@ -59502,19 +59418,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="101" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B64" s="75"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="101" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B65" s="75"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="101" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -59525,7 +59441,7 @@
     </row>
     <row r="67" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="100" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -59536,37 +59452,37 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="101" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B68" s="75"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B69" s="75"/>
     </row>
     <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="73" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B71" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C71" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D71" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E71" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F71" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H71" s="76" t="s">
         <v>4</v>
@@ -59574,13 +59490,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="101" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B72" s="74"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="101" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -59591,7 +59507,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="101" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -59602,7 +59518,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="101" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -59613,7 +59529,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="101" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -59624,25 +59540,25 @@
     </row>
     <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="73" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B78" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C78" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D78" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E78" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F78" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G78" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H78" s="76" t="s">
         <v>4</v>
@@ -59650,7 +59566,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="101" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B79" s="75"/>
       <c r="C79" s="101"/>
@@ -59661,7 +59577,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="101" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B80" s="75"/>
       <c r="C80" s="101"/>
@@ -59672,7 +59588,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="101" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -59709,7 +59625,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -59718,54 +59634,54 @@
     </row>
     <row r="2" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
     </row>
     <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B6" s="75"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B8" s="77"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B9" s="77"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B11" s="77"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>53</v>
@@ -59776,7 +59692,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -59784,7 +59700,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="101" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -59792,7 +59708,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="101" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -59803,7 +59719,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>4</v>
@@ -59811,51 +59727,51 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
     </row>
     <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="73" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B26" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D26" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F26" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G26" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H26" s="76" t="s">
         <v>4</v>
@@ -59863,7 +59779,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
@@ -59874,7 +59790,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="101" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="74"/>
@@ -59884,7 +59800,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -59895,25 +59811,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B31" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D31" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F31" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H31" s="76" t="s">
         <v>4</v>
@@ -59921,13 +59837,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="101" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B32" s="75"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="101" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -59938,7 +59854,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="101" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -59949,7 +59865,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="101" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -59960,7 +59876,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="101" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="74"/>
@@ -59970,7 +59886,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="101" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -59981,25 +59897,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B39" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D39" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G39" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H39" s="76" t="s">
         <v>4</v>
@@ -60007,7 +59923,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="101" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -60018,7 +59934,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="101" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="74"/>
@@ -60028,7 +59944,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="101" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -60066,7 +59982,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -60075,26 +59991,26 @@
     </row>
     <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F4" s="76" t="s">
         <v>4</v>
@@ -60102,7 +60018,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -60111,7 +60027,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="75"/>
@@ -60120,7 +60036,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="101" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="75"/>
@@ -60129,7 +60045,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -60138,7 +60054,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="101" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -60147,7 +60063,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -60156,7 +60072,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="101" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -60165,7 +60081,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -60174,7 +60090,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="11"/>
@@ -60183,19 +60099,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="68" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>4</v>
@@ -60213,7 +60129,7 @@
     </row>
     <row r="17" spans="1:6" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="100" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B17" s="74"/>
       <c r="C17" s="66"/>
@@ -60223,31 +60139,31 @@
     </row>
     <row r="18" spans="1:6" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="100" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
       <c r="D18" s="77"/>
       <c r="E18" s="75"/>
       <c r="F18" s="101" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="100" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
       <c r="E19" s="75"/>
       <c r="F19" s="101" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="101" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -60257,7 +60173,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
@@ -60267,7 +60183,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="101" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
@@ -60285,16 +60201,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="76" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D24" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F24" s="76" t="s">
         <v>4</v>
@@ -60302,16 +60218,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="101" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>377</v>
-      </c>
-      <c r="C25" s="111">
+        <v>369</v>
+      </c>
+      <c r="C25" s="110">
         <v>325.48760399999998</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E25" s="75"/>
     </row>
@@ -60320,7 +60236,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D26" s="76" t="s">
         <v>4</v>
@@ -60328,14 +60244,14 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>53</v>
@@ -60347,7 +60263,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -60355,7 +60271,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="101" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -60387,7 +60303,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -60396,24 +60312,24 @@
     </row>
     <row r="2" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="131" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B2" s="121"/>
       <c r="C2" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B6" s="75"/>
     </row>
@@ -60425,19 +60341,19 @@
         <v>51</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H8" s="76" t="s">
         <v>4</v>
@@ -60445,31 +60361,31 @@
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="73" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B9" s="75"/>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="73" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D11" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F11" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H11" s="76" t="s">
         <v>4</v>
@@ -60477,14 +60393,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -60495,7 +60411,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -60506,7 +60422,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="101" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -60517,7 +60433,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="101" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -60528,7 +60444,7 @@
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="73" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
@@ -60539,7 +60455,7 @@
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="73" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -60550,7 +60466,7 @@
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="73" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
@@ -60561,7 +60477,7 @@
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="73" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -60572,7 +60488,7 @@
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="73" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -60583,7 +60499,7 @@
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="73" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -60597,7 +60513,7 @@
     </row>
     <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="73" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -60611,7 +60527,7 @@
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="73" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -60625,7 +60541,7 @@
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="73" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -60639,7 +60555,7 @@
     </row>
     <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="73" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -60653,7 +60569,7 @@
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="73" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -60667,7 +60583,7 @@
     </row>
     <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="73" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
